--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_145.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.02, 22.2)]</t>
+          <t>[('0:00:27.200000', '0:00:40.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1052955665024631</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:33.431496', '0:00:38.307687')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.525</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.3, 20.68)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:05.680000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -888,317 +910,262 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(38.12, 52.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.14, 30.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
